--- a/Proyecto/Diagrama UML.xlsx
+++ b/Proyecto/Diagrama UML.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\docs\GitHub\c++\prg0318\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC090C9-6B58-4C1D-B956-99B06285EA6F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77BB5C2-8916-41F0-BBAF-4FB747F5F826}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7695" xr2:uid="{8691D4D5-D3C1-41C1-870A-AECFF07937DF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
   <si>
     <t>Registro Base</t>
   </si>
@@ -246,42 +246,9 @@
     <t>virtual bool ValidarCodigo(string codigo, vector &lt;TipoProducto *&gt; newRegistro)</t>
   </si>
   <si>
-    <t>BodegaPrincipal</t>
-  </si>
-  <si>
     <t>int GetExistencia()</t>
   </si>
   <si>
-    <t>BodegaPrincipal()</t>
-  </si>
-  <si>
-    <t>~BodegaPrincipal()</t>
-  </si>
-  <si>
-    <t>BodegaEnfermeria</t>
-  </si>
-  <si>
-    <t>BodegaEnfermeria()</t>
-  </si>
-  <si>
-    <t>~BodegaEnfermeria()</t>
-  </si>
-  <si>
-    <t>BodegaPrincipal(string, string, string, string, int, vector &lt;Producto *&gt;)</t>
-  </si>
-  <si>
-    <t>BodegaEnfermeria(string, string, string, string, int, vector &lt;Producto *&gt;)</t>
-  </si>
-  <si>
-    <t>void Transferencia(BodegaEnfermeria *,  vector &lt;BodegaPrincipal *&gt;,  vector &lt;BodegaEnfermeria *&gt;)</t>
-  </si>
-  <si>
-    <t>void Transferencia(BodegaPrincipal *, vector &lt;BodegaPrincipal *&gt;, vector &lt;BodegaEnfermeria *&gt;)</t>
-  </si>
-  <si>
-    <t>void ActualizarBodega(Compra *, vector &lt;BodegaPrincipal *&gt;)</t>
-  </si>
-  <si>
     <t>void (Compras *)</t>
   </si>
   <si>
@@ -313,6 +280,15 @@
   </si>
   <si>
     <t>Bodega(string, string, string, int, vector &lt;Producto *&gt;)</t>
+  </si>
+  <si>
+    <t>void Cargar()</t>
+  </si>
+  <si>
+    <t>void Transfererir(Bodega *, vector &lt;Bodega *&gt;, vector &lt;Bodega *&gt;)</t>
+  </si>
+  <si>
+    <t>void Actualizar(Compra *, vector &lt;Bodega *&gt;)</t>
   </si>
 </sst>
 </file>
@@ -448,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -466,9 +442,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -482,7 +455,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -499,9 +471,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -522,9 +491,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1547,159 +1513,6 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1646464</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1809750</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="93" name="Conector recto 92">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{271A1FC5-9FCE-4C5D-9686-90942A3C9007}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10273393" y="11947071"/>
-          <a:ext cx="7062107" cy="13608"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1986643</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1987444</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>30416</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="99" name="Conector recto 98">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{383296D2-792D-4F75-BCC8-18C24DFBB552}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13960929" y="11552464"/>
-          <a:ext cx="801" cy="397809"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1646463</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1651266</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>180095</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="101" name="Conector recto de flecha 100">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC85C659-2202-4D8A-A1D6-F1252D13C953}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10273392" y="11960678"/>
-          <a:ext cx="4803" cy="329774"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1863,69 +1676,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1809750</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
+      <xdr:rowOff>112661</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1814553</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>180096</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="127" name="Conector recto de flecha 126">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75BB5CCE-BB71-4C3A-8806-336B0E42A2F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17335500" y="10218965"/>
-          <a:ext cx="4803" cy="329774"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3571875</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3287661</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1940,8 +1700,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5029200" y="14173200"/>
-          <a:ext cx="3571875" cy="1457325"/>
+          <a:off x="9883468" y="12198145"/>
+          <a:ext cx="6882580" cy="3144480"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -1967,122 +1727,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>124283</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3665342</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="144" name="Conector recto de flecha 143">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF8D580-2261-48F3-8006-BA6D79A24315}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16957556" y="14005315"/>
-          <a:ext cx="3541059" cy="11206"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>281165</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>336176</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3384516" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="147" name="CuadroTexto 146">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27017C80-8914-4E1E-BEED-334F414D6772}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17101194" y="13603941"/>
-          <a:ext cx="3384516" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-HN" sz="1100"/>
-            <a:t>Se conectan a nivel de funciones,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-HN" sz="1100" baseline="0"/>
-            <a:t> osea por dependencia</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2385,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616391A1-C776-4213-86AF-34629A22CA3A}">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="B39" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56:F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2396,7 +2040,7 @@
     <col min="3" max="3" width="59.140625" customWidth="1"/>
     <col min="4" max="4" width="53.85546875" customWidth="1"/>
     <col min="5" max="5" width="50" customWidth="1"/>
-    <col min="6" max="6" width="58.28515625" customWidth="1"/>
+    <col min="6" max="6" width="62.85546875" customWidth="1"/>
     <col min="7" max="7" width="53.42578125" customWidth="1"/>
     <col min="8" max="8" width="34.85546875" customWidth="1"/>
     <col min="11" max="11" width="27.7109375" customWidth="1"/>
@@ -2410,7 +2054,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B3" s="6"/>
       <c r="H3" s="10" t="s">
@@ -2426,7 +2070,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B5" s="6"/>
       <c r="H5" s="4" t="s">
@@ -2435,7 +2079,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B6" s="6"/>
       <c r="H6" s="5" t="s">
@@ -2444,17 +2088,17 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="23"/>
+      <c r="C7" s="21"/>
       <c r="H7" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>93</v>
+      <c r="A8" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="B8" s="6"/>
       <c r="H8" s="8" t="s">
@@ -2498,7 +2142,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F14" s="6"/>
       <c r="H14" s="8" t="s">
@@ -2507,7 +2151,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>15</v>
@@ -2515,7 +2159,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>26</v>
@@ -2527,116 +2171,116 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="E18" s="15"/>
+      <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="19" t="s">
+      <c r="E19" s="14"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21" t="s">
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19" t="s">
         <v>3</v>
       </c>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="15"/>
+      <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="15"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="15"/>
+      <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="15"/>
+      <c r="E23" s="14"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="15"/>
+      <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="25"/>
+      <c r="E26" s="22"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="25"/>
+      <c r="E27" s="22"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="25"/>
+      <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="25"/>
+      <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="26"/>
+      <c r="E30" s="23"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="25"/>
+      <c r="E31" s="22"/>
     </row>
     <row r="34" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="23"/>
+      <c r="H35" s="21"/>
     </row>
     <row r="36" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="3" t="s">
@@ -2661,7 +2305,7 @@
       </c>
     </row>
     <row r="39" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="20" t="s">
         <v>33</v>
       </c>
       <c r="F39" s="5" t="s">
@@ -2669,10 +2313,10 @@
       </c>
     </row>
     <row r="40" spans="3:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="27" t="s">
+      <c r="F40" s="24" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2682,15 +2326,15 @@
       </c>
     </row>
     <row r="42" spans="3:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="16" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2698,7 +2342,7 @@
       <c r="C44" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="35" t="s">
+      <c r="F44" s="31" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2706,7 +2350,7 @@
       <c r="C45" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="35" t="s">
+      <c r="F45" s="31" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2714,7 +2358,7 @@
       <c r="C46" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F46" s="36" t="s">
+      <c r="F46" s="32" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2722,184 +2366,157 @@
       <c r="C47" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F47" s="37" t="s">
+      <c r="F47" s="33" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F48" s="37" t="s">
+      <c r="F48" s="33" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C49" s="22" t="s">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F49" s="35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="22" t="s">
+      <c r="F49" s="31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F50" s="45" t="s">
+      <c r="F50" s="41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C51" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F51" s="35" t="s">
+      <c r="F51" s="31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C52" s="15"/>
-      <c r="F52" s="35" t="s">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="14"/>
+      <c r="F52" s="31" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F53" s="35" t="s">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="31" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F54" s="35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F55" s="35" t="s">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F55" s="31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="18" t="s">
+    <row r="56" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F56" s="36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C57" s="28" t="s">
+      <c r="F56" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C57" s="25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C58" s="22" t="s">
+      <c r="F57" s="31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C58" s="20" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F58" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C59" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F59" s="32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C60" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C61" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E61" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="G61" s="24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C62" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E62" s="17"/>
-      <c r="G62" s="17"/>
-    </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C63" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="3:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="13" t="s">
+    </row>
+    <row r="64" spans="3:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E64" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F64" s="31"/>
-      <c r="G64" s="22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="29" t="s">
+      <c r="F64" s="28"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C65" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E65" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="F65" s="23"/>
-      <c r="G65" s="32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="29" t="s">
+      <c r="F65" s="21"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C66" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="E66" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G66" s="27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="29" t="s">
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C67" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E67" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G67" s="33"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C68" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E68" s="34"/>
-      <c r="G68" s="33"/>
+      <c r="E68" s="30"/>
+      <c r="G68" s="29"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C69" s="8" t="s">
         <v>66</v>
       </c>
       <c r="E69" s="6"/>
-      <c r="G69" s="30"/>
+      <c r="G69" s="27"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C70" s="8" t="s">
         <v>67</v>
       </c>
       <c r="E70" s="6"/>
-      <c r="G70" s="30"/>
+      <c r="G70" s="27"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C71" s="8" t="s">
@@ -2913,7 +2530,7 @@
         <v>69</v>
       </c>
       <c r="E72" s="6"/>
-      <c r="G72" s="15"/>
+      <c r="G72" s="14"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C73" s="4" t="s">
@@ -2921,11 +2538,11 @@
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="20" t="s">
-        <v>94</v>
+      <c r="B74" s="18" t="s">
+        <v>83</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Proyecto/Diagrama UML.xlsx
+++ b/Proyecto/Diagrama UML.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\docs\GitHub\c++\prg0318\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77BB5C2-8916-41F0-BBAF-4FB747F5F826}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6A6FBC-D1B1-46F8-89C9-B39EC524C364}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7695" xr2:uid="{8691D4D5-D3C1-41C1-870A-AECFF07937DF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>Registro Base</t>
   </si>
@@ -282,13 +282,25 @@
     <t>Bodega(string, string, string, int, vector &lt;Producto *&gt;)</t>
   </si>
   <si>
-    <t>void Cargar()</t>
-  </si>
-  <si>
-    <t>void Transfererir(Bodega *, vector &lt;Bodega *&gt;, vector &lt;Bodega *&gt;)</t>
-  </si>
-  <si>
-    <t>void Actualizar(Compra *, vector &lt;Bodega *&gt;)</t>
+    <t>void Transfererir(Producto *, vector &lt;Bodega *&gt; &amp;, Bodega *, vector &lt;Bodega *&gt; &amp;)</t>
+  </si>
+  <si>
+    <t>void CargarProducto(Producto *, Bodega *, vector &lt;Bodega *&gt; &amp;)</t>
+  </si>
+  <si>
+    <t>bool ValidarCodigoProductoBodega(Bodega *, vector &lt;Bodega *&gt;)</t>
+  </si>
+  <si>
+    <t>bool ValidarCodigoProductoBodega(Producto *, vector &lt;Bodega *&gt;)</t>
+  </si>
+  <si>
+    <t>bool ValidarCantidadTraslado(int, int)</t>
+  </si>
+  <si>
+    <t>Bodega(string, string)</t>
+  </si>
+  <si>
+    <t>Bodega(string, string, string, int)</t>
   </si>
 </sst>
 </file>
@@ -328,7 +340,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,6 +368,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -500,9 +518,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -522,8 +537,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1678,14 +1702,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>112661</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>107324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3287661</xdr:colOff>
+      <xdr:colOff>3246550</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:rowOff>133352</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1700,8 +1724,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9883468" y="12198145"/>
-          <a:ext cx="6882580" cy="3144480"/>
+          <a:off x="9887218" y="12073944"/>
+          <a:ext cx="6841902" cy="2695711"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -2029,8 +2053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616391A1-C776-4213-86AF-34629A22CA3A}">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B39" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56:F59"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2040,7 +2064,7 @@
     <col min="3" max="3" width="59.140625" customWidth="1"/>
     <col min="4" max="4" width="53.85546875" customWidth="1"/>
     <col min="5" max="5" width="50" customWidth="1"/>
-    <col min="6" max="6" width="62.85546875" customWidth="1"/>
+    <col min="6" max="6" width="79" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.42578125" customWidth="1"/>
     <col min="8" max="8" width="34.85546875" customWidth="1"/>
     <col min="11" max="11" width="27.7109375" customWidth="1"/>
@@ -2193,7 +2217,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="34" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="14"/>
@@ -2207,7 +2231,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="34" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="14"/>
@@ -2228,44 +2252,44 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="35" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="22"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="36" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="22"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="36" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="37" t="s">
         <v>27</v>
       </c>
       <c r="E30" s="23"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="38" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="22"/>
@@ -2313,7 +2337,7 @@
       </c>
     </row>
     <row r="40" spans="3:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="39" t="s">
         <v>34</v>
       </c>
       <c r="F40" s="24" t="s">
@@ -2342,7 +2366,7 @@
       <c r="C44" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="31" t="s">
+      <c r="F44" s="40" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2350,7 +2374,7 @@
       <c r="C45" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="31" t="s">
+      <c r="F45" s="40" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2358,7 +2382,7 @@
       <c r="C46" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F46" s="32" t="s">
+      <c r="F46" s="41" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2366,7 +2390,7 @@
       <c r="C47" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F47" s="33" t="s">
+      <c r="F47" s="45" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2374,7 +2398,7 @@
       <c r="C48" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F48" s="33" t="s">
+      <c r="F48" s="42" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2382,97 +2406,109 @@
       <c r="C49" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F49" s="31" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F49" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F50" s="41" t="s">
-        <v>54</v>
+      <c r="F50" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C51" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F51" s="31" t="s">
+      <c r="F51" s="40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="14"/>
+      <c r="F52" s="44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="43" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="14"/>
-      <c r="F52" s="31" t="s">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="40" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F53" s="31" t="s">
+    <row r="55" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F55" s="40" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F54" s="31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F55" s="31" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="56" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C56" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F56" s="31" t="s">
-        <v>85</v>
+      <c r="F56" s="40" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C57" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F57" s="31" t="s">
-        <v>86</v>
+      <c r="F57" s="40" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C58" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="31" t="s">
+      <c r="F58" s="40" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C59" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F59" s="32" t="s">
-        <v>26</v>
+      <c r="F59" s="40" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C60" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="F60" s="40" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="61" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C61" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="F61" s="40" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C62" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C63" s="8" t="s">
         <v>60</v>
+      </c>
+      <c r="F63" s="41" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="3:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
